--- a/biology/Médecine/Réflexe_idiomusculaire/Réflexe_idiomusculaire.xlsx
+++ b/biology/Médecine/Réflexe_idiomusculaire/Réflexe_idiomusculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_idiomusculaire</t>
+          <t>Réflexe_idiomusculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un réflexe idio-musculaire est la contraction du muscle, suivie d'une décontraction rapide, qui survient normalement lors de la percussion directe du muscle (avec un marteau à réflexes). Ce réflexe peut être aboli en cas de myopathie, il peut également être exagéré en cas de myotonie par exacerbation de la contractilité des fibres musculaires indépendamment du tonus nerveux (phénomène de myotonie à la percussion dans la maladie de Steinert).
 </t>
